--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_2.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:05.400000', '0:00:13.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.820000', '0:00:38.820000'), ('0:00:36.520000', '0:00:38.280000'), ('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(61.3, 70.46)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:00:21.080000', '0:00:24.320000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.38, 42.28)]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4613095238095238</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[('0:00:07.205000', '0:00:21.095000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000'), ('0:00:00.500000', '0:00:03.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:18.400000'), ('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1485507246376812</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22), (41.38, 43.34)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(51.36, 63.98)]</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.92, 13.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.94, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
